--- a/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
+++ b/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bulme-my.sharepoint.com/personal/florian_kunz_ms_bulme_at/Documents/HTL Bulme/SJ202526/SPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HTL_Bulme\SPL_Project_Watermelon\CandyMachine_Watermelon\Stuecklisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{C21F3410-6AA2-4450-8098-F360CD8927B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4C74FF-12A4-4C08-916C-31F4F8242BB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDFCA43-FBEF-475D-AD4D-AC7413B151D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Anzahl</t>
   </si>
@@ -90,6 +90,39 @@
   </si>
   <si>
     <t>8x 15x15x100mm</t>
+  </si>
+  <si>
+    <t>9x hexagon head bolt</t>
+  </si>
+  <si>
+    <t>MakerBeamXL - 15x15mm 50 pieces T-slot nuts for MakerBeamXL</t>
+  </si>
+  <si>
+    <t>https://www.makerbeam.com/t-slot-nuts-for-makerbeamxl-50p.html</t>
+  </si>
+  <si>
+    <t>OpenBeam - 15x15mm 100 pieces, M3, 6mm, button head socket bolt for 15x15mm</t>
+  </si>
+  <si>
+    <t>https://www.makerbeam.com/openbeam-button-head-socket-bolt-6mm-100p-for-open.html</t>
+  </si>
+  <si>
+    <t>28x button head socket bolt</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE</t>
+  </si>
+  <si>
+    <t>553-396</t>
+  </si>
+  <si>
+    <t>32x T-slot nuts</t>
+  </si>
+  <si>
+    <t>4x Senkkopfschraube</t>
+  </si>
+  <si>
+    <t>RS PRO Senkkopf Pozi Schrauben verzinkt, M3 x 6.0mm Stahl (100 Stk)</t>
   </si>
 </sst>
 </file>
@@ -137,10 +170,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -476,15 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873408D1-FEA1-4C01-9395-0C80F48BC176}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -601,6 +640,81 @@
       <c r="F5" s="1">
         <f>A5*C5</f>
         <v>7.35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>103295</v>
+      </c>
+      <c r="F6" s="1">
+        <f>A6*C6</f>
+        <v>17.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>100933</v>
+      </c>
+      <c r="F7" s="1">
+        <f>A7*C7</f>
+        <v>5.98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <f>A8*C8</f>
+        <v>4.57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -609,6 +723,9 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{4B87E657-81C3-438E-A0E8-9BB0929454E9}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{A97136B6-AF32-46AF-9029-6A45E767EFD4}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{42C93B06-26D3-4FBF-B0AD-983BE0B36243}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9CE5EA8C-B8AC-4045-AA18-8B5C4E0D3304}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{52A401C4-EDC4-45A2-8237-D23D79BA72BC}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE" xr:uid="{0804A52B-89F5-4EBA-B3F0-A58D18CE9F95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
+++ b/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HTL_Bulme\SPL_Project_Watermelon\CandyMachine_Watermelon\Stuecklisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDFCA43-FBEF-475D-AD4D-AC7413B151D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3F7D65-A72E-4B25-8D6F-7D8B044C10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Anzahl</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Benötigt</t>
   </si>
   <si>
-    <t>7x Corner brackets</t>
-  </si>
-  <si>
     <t>2x 15x15x500mm</t>
   </si>
   <si>
@@ -110,19 +107,10 @@
     <t>28x button head socket bolt</t>
   </si>
   <si>
-    <t>https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE</t>
-  </si>
-  <si>
-    <t>553-396</t>
-  </si>
-  <si>
-    <t>32x T-slot nuts</t>
-  </si>
-  <si>
-    <t>4x Senkkopfschraube</t>
-  </si>
-  <si>
-    <t>RS PRO Senkkopf Pozi Schrauben verzinkt, M3 x 6.0mm Stahl (100 Stk)</t>
+    <t>28x T-slot nuts</t>
+  </si>
+  <si>
+    <t>5x Corner brackets</t>
   </si>
 </sst>
 </file>
@@ -170,19 +158,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,6 +185,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9A48411-3BEC-4BB6-80B7-9F4291AC7A73}" name="Tabelle1" displayName="Tabelle1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{B9A48411-3BEC-4BB6-80B7-9F4291AC7A73}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B195A8D2-EFFF-4219-934E-FECCD6DF88AA}" name="Anzahl"/>
+    <tableColumn id="2" xr3:uid="{65152C0F-D7FB-4DF5-9078-F76FDC6C07C4}" name="Link (URL)" dataCellStyle="Link"/>
+    <tableColumn id="3" xr3:uid="{6D29D473-55FD-4C16-A470-75F57CCB08CE}" name="Preis" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{90636D1D-109C-4CD2-80CD-AC5E141EAAD5}" name="Bezeichnung"/>
+    <tableColumn id="5" xr3:uid="{421C1A93-2A6A-48D9-8E35-426B5203B53D}" name="Artikelnummer"/>
+    <tableColumn id="6" xr3:uid="{DBFB8660-5909-4CEE-BF05-FAF747C6EFD2}" name="Gesamtpreis" dataDxfId="0">
+      <calculatedColumnFormula>A2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{800DC3C0-9FC0-4ECB-BD01-F2BCE21C01DD}" name="Benötigt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873408D1-FEA1-4C01-9395-0C80F48BC176}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -520,9 +530,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="53.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
     <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,11 +577,11 @@
         <v>103385</v>
       </c>
       <c r="F2" s="1">
-        <f>A2*C2</f>
+        <f t="shared" ref="F2:F7" si="0">A2*C2</f>
         <v>11.3</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -590,11 +601,11 @@
         <v>103420</v>
       </c>
       <c r="F3" s="1">
-        <f>A3*C3</f>
+        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -614,11 +625,11 @@
         <v>100315</v>
       </c>
       <c r="F4" s="1">
-        <f>A4*C4</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -638,11 +649,11 @@
         <v>100944</v>
       </c>
       <c r="F5" s="1">
-        <f>A5*C5</f>
+        <f t="shared" si="0"/>
         <v>7.35</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -650,23 +661,23 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>17.5</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>103295</v>
       </c>
       <c r="F6" s="1">
-        <f>A6*C6</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -674,47 +685,23 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>5.98</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>100933</v>
       </c>
       <c r="F7" s="1">
-        <f>A7*C7</f>
+        <f t="shared" si="0"/>
         <v>5.98</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <f>A8*C8</f>
-        <v>4.57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +712,10 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{42C93B06-26D3-4FBF-B0AD-983BE0B36243}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{9CE5EA8C-B8AC-4045-AA18-8B5C4E0D3304}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{52A401C4-EDC4-45A2-8237-D23D79BA72BC}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE" xr:uid="{0804A52B-89F5-4EBA-B3F0-A58D18CE9F95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
+++ b/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HTL_Bulme\SPL_Project_Watermelon\CandyMachine_Watermelon\Stuecklisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\SPL\CandyMaschine_Project\CandyMachine_Watermelon\Stuecklisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDFCA43-FBEF-475D-AD4D-AC7413B151D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7F7EA-D6B4-49D4-80F8-78138771B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Anzahl</t>
   </si>
@@ -123,16 +123,32 @@
   </si>
   <si>
     <t>RS PRO Senkkopf Pozi Schrauben verzinkt, M3 x 6.0mm Stahl (100 Stk)</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/shop/produkt/distanzhuelsen_metall_6-kant_m3_12mm-44788?PROVID=2807&amp;gad_source=1&amp;gad_campaignid=20703099530&amp;gclid=CjwKCAiAkbbMBhB2EiwANbxtbcXGKFluz-sIytUGdMVE5B7N07kxZgL4rXH5zwcEsKJ8a7j2yv9ATBoClzwQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Distanzhülsen, Metall, 6-Kant, M3, 12mm</t>
+  </si>
+  <si>
+    <t>https://electronics.semaf.at/m25-plastic-spacer-bolt-10x6mm-x-10pcs</t>
+  </si>
+  <si>
+    <t>M2.5 Plastic Spacer Bolt - 10x6mm x 10pcs.</t>
+  </si>
+  <si>
+    <t>SER01507</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +163,21 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DM Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,11 +201,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -512,21 +553,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873408D1-FEA1-4C01-9395-0C80F48BC176}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="53.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -566,14 +608,14 @@
         <v>103385</v>
       </c>
       <c r="F2" s="1">
-        <f>A2*C2</f>
+        <f t="shared" ref="F2:F9" si="0">A2*C2</f>
         <v>11.3</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -590,14 +632,14 @@
         <v>103420</v>
       </c>
       <c r="F3" s="1">
-        <f>A3*C3</f>
+        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -614,14 +656,14 @@
         <v>100315</v>
       </c>
       <c r="F4" s="1">
-        <f>A4*C4</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -638,14 +680,14 @@
         <v>100944</v>
       </c>
       <c r="F5" s="1">
-        <f>A5*C5</f>
+        <f t="shared" si="0"/>
         <v>7.35</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -662,14 +704,14 @@
         <v>103295</v>
       </c>
       <c r="F6" s="1">
-        <f>A6*C6</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -686,14 +728,14 @@
         <v>100933</v>
       </c>
       <c r="F7" s="1">
-        <f>A7*C7</f>
+        <f t="shared" si="0"/>
         <v>5.98</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -710,11 +752,47 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <f>A8*C8</f>
+        <f t="shared" si="0"/>
         <v>4.57</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9900000447885</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <f>A10*C10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -726,6 +804,7 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{9CE5EA8C-B8AC-4045-AA18-8B5C4E0D3304}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{52A401C4-EDC4-45A2-8237-D23D79BA72BC}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE" xr:uid="{0804A52B-89F5-4EBA-B3F0-A58D18CE9F95}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{97CC8FAB-A801-4DC2-8636-48CD37A92E1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
+++ b/Stuecklisten/Stueckliste_Elektrobox_Rahmen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\SPL\CandyMaschine_Project\CandyMachine_Watermelon\Stuecklisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HTL_Bulme\SPL_Project_Watermelon\CandyMachine_Watermelon\Stuecklisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB46F6B-8A2F-4320-8F3D-34195B432FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3F7D65-A72E-4B25-8D6F-7D8B044C10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9960" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{797F69E5-6349-40C8-ABC7-0C572E2B2F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Anzahl</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Benötigt</t>
   </si>
   <si>
-    <t>7x Corner brackets</t>
-  </si>
-  <si>
     <t>2x 15x15x500mm</t>
   </si>
   <si>
@@ -110,19 +107,10 @@
     <t>28x button head socket bolt</t>
   </si>
   <si>
-    <t>https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE</t>
-  </si>
-  <si>
-    <t>553-396</t>
-  </si>
-  <si>
-    <t>32x T-slot nuts</t>
-  </si>
-  <si>
-    <t>4x Senkkopfschraube</t>
-  </si>
-  <si>
-    <t>RS PRO Senkkopf Pozi Schrauben verzinkt, M3 x 6.0mm Stahl (100 Stk)</t>
+    <t>28x T-slot nuts</t>
+  </si>
+  <si>
+    <t>5x Corner brackets</t>
   </si>
 </sst>
 </file>
@@ -170,19 +158,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,6 +185,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9A48411-3BEC-4BB6-80B7-9F4291AC7A73}" name="Tabelle1" displayName="Tabelle1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{B9A48411-3BEC-4BB6-80B7-9F4291AC7A73}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B195A8D2-EFFF-4219-934E-FECCD6DF88AA}" name="Anzahl"/>
+    <tableColumn id="2" xr3:uid="{65152C0F-D7FB-4DF5-9078-F76FDC6C07C4}" name="Link (URL)" dataCellStyle="Link"/>
+    <tableColumn id="3" xr3:uid="{6D29D473-55FD-4C16-A470-75F57CCB08CE}" name="Preis" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{90636D1D-109C-4CD2-80CD-AC5E141EAAD5}" name="Bezeichnung"/>
+    <tableColumn id="5" xr3:uid="{421C1A93-2A6A-48D9-8E35-426B5203B53D}" name="Artikelnummer"/>
+    <tableColumn id="6" xr3:uid="{DBFB8660-5909-4CEE-BF05-FAF747C6EFD2}" name="Gesamtpreis" dataDxfId="0">
+      <calculatedColumnFormula>A2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{800DC3C0-9FC0-4ECB-BD01-F2BCE21C01DD}" name="Benötigt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,22 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873408D1-FEA1-4C01-9395-0C80F48BC176}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -567,14 +577,14 @@
         <v>103385</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F8" si="0">A2*C2</f>
+        <f t="shared" ref="F2:F7" si="0">A2*C2</f>
         <v>11.3</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,10 +605,10 @@
         <v>11.7</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -619,10 +629,10 @@
         <v>7.25</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -643,21 +653,21 @@
         <v>7.35</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>17.5</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>103295</v>
@@ -667,21 +677,21 @@
         <v>17.5</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>5.98</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>100933</v>
@@ -691,31 +701,7 @@
         <v>5.98</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -726,8 +712,10 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{42C93B06-26D3-4FBF-B0AD-983BE0B36243}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{9CE5EA8C-B8AC-4045-AA18-8B5C4E0D3304}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{52A401C4-EDC4-45A2-8237-D23D79BA72BC}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://at.rs-online.com/web/p/maschinenschrauben/0553396?cm_mmc=AT-PLA-DS3A-_-google-_-CSS_AT_DE_Pmax_Test-_--_-553396&amp;matchtype=&amp;&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20298205821&amp;gbraid=0AAAAADkeWNOMk3njhx3G3UuxBKKpXpIzU&amp;gclid=CjwKCAiA4KfLBhB0EiwAUY7GAVIHP6yNCVoEI38KaxgYXcveDheFoWhoKTnW8EtL1ZMtSL_iyDy5LhoCUXQQAvD_BwE" xr:uid="{0804A52B-89F5-4EBA-B3F0-A58D18CE9F95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>